--- a/Reference_files/queries.xlsx
+++ b/Reference_files/queries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KAY KAY OVERSEAS CORPORATION</t>
+          <t>CLICKTECH RETAIL PRIVATE LIMITED</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>boAt</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Philips Skin Friendly Beard Trimmer for Men| 10 Length Settings| 15mins Quick Charge| Self Sharpening Blades | Cordless &amp; Rechargeable| New Model - BT3303/30</t>
+          <t>boAt Rockerz 430 w/ 40mm Drivers, Beast Mode w/ 40ms Latency, 40hrs Playback, ENx Tech, Voice Assistant, BTv5.4, Adaptive Fit &amp; Easy Access Controls, Bluetooth Headphones(Sage Green) | B0DGTVVCG8</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-03</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>03.02.2025</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>36AACFK0693D2ZJ</t>
+          <t>36AAJCC9783E1Z8</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HYD3-639338</t>
+          <t>FHYE-567602</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>₹999.00</t>
+          <t>₹1,299.00</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,8 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₹152.39</t>
+          <t>CGST: ₹99.08
+SGST: ₹99.08</t>
         </is>
       </c>
     </row>
@@ -665,11 +666,7 @@
           <t>IGST percentage</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>18%</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -684,7 +681,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KAY KAY OVERSEAS CORPORATION, Survey Number 99/1, Mamidipally Village, Shamshabad, HYDERABAD, TELANGANA, 500108, IN</t>
+          <t>Parle Godowns, Laxmi Nagar, Habsiguda, HYDERABAD, TELANGANA, 500013</t>
         </is>
       </c>
     </row>
@@ -701,9 +698,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1/57/A/194 , sri Aurobindo Residency, 9, sriram nagar
-HYDERABAD, TELANGANA, 500084
-IN</t>
+          <t>1/57/A/194 , sri Aurobindo Residency, 9, sriram nagar road,Sri Ram nagar HYDERABAD, TELANGANA, 500084</t>
         </is>
       </c>
     </row>
@@ -720,12 +715,10 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Syam
-Khairunnisa
-13-739/100/1-1F-152 , Surya Teja nagar , Sai
-Baba street, Behind Care hospitals , Arilova ,
-Visakhapatnam
-VISAKHAPATNAM, ANDHRA PRADESH, 530040
+          <t>Khairunnisa
+VR Lavish PG For Women , APHB colony,phase
+4, Gachibowli
+HYDERABAD, TELANGANA, 500032
 IN</t>
         </is>
       </c>
@@ -743,7 +736,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KAY KAY OVERSEAS CORPORATION, Survey Number 99/1, Mamidipally Village, Shamshabad, HYDERABAD, TELANGANA, 500108, IN</t>
+          <t>Parle Godowns, Laxmi Nagar, Habsiguda, HYDERABAD, TELANGANA, 500013</t>
         </is>
       </c>
     </row>
@@ -777,7 +770,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AACFK0693D</t>
+          <t>AAJCC9783E</t>
         </is>
       </c>
     </row>
@@ -794,7 +787,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GiftCard</t>
+          <t>The mode of payment is not specified in the provided information.</t>
         </is>
       </c>
     </row>
@@ -811,7 +804,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Beard Trimmer</t>
+          <t>Bluetooth Headphones</t>
         </is>
       </c>
     </row>
@@ -824,7 +817,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>syam_muni</t>
         </is>
       </c>
     </row>
